--- a/uploads/קובץ לבדיקה.xlsx
+++ b/uploads/קובץ לבדיקה.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\DataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49ABCA1-C523-4CA7-BDB5-F631D3D5270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216418B-6A93-426A-A115-D2EFA8E674CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C09570C1-1D79-4B04-BE2B-D9185E9AD8FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>שם החייל</t>
   </si>
@@ -455,6 +455,12 @@
 מא״ב(4)
 מט״ס(4)
 תשתיות(5)</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>אנדסה</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53345894-71C4-4D06-9AEA-C74DD1E2B74D}">
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,8 +1042,12 @@
       <c r="C2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1049,6 +1059,9 @@
       <c r="C3" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1060,6 +1073,9 @@
       <c r="C4" s="15" t="s">
         <v>84</v>
       </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1071,6 +1087,9 @@
       <c r="C5" s="15" t="s">
         <v>58</v>
       </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1082,6 +1101,9 @@
       <c r="C6" s="15" t="s">
         <v>59</v>
       </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1093,6 +1115,9 @@
       <c r="C7" s="15" t="s">
         <v>60</v>
       </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1104,6 +1129,9 @@
       <c r="C8" s="15" t="s">
         <v>61</v>
       </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1115,6 +1143,9 @@
       <c r="C9" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1126,6 +1157,9 @@
       <c r="C10" s="15" t="s">
         <v>63</v>
       </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1137,6 +1171,9 @@
       <c r="C11" s="15" t="s">
         <v>64</v>
       </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1148,6 +1185,9 @@
       <c r="C12" s="15" t="s">
         <v>65</v>
       </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1159,6 +1199,9 @@
       <c r="C13" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1170,6 +1213,9 @@
       <c r="C14" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1181,6 +1227,9 @@
       <c r="C15" s="15" t="s">
         <v>68</v>
       </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1192,8 +1241,11 @@
       <c r="C16" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1203,8 +1255,11 @@
       <c r="C17" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1214,8 +1269,11 @@
       <c r="C18" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1225,8 +1283,11 @@
       <c r="C19" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
@@ -1236,8 +1297,11 @@
       <c r="C20" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
@@ -1247,8 +1311,11 @@
       <c r="C21" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>30</v>
       </c>
@@ -1258,8 +1325,11 @@
       <c r="C22" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>31</v>
       </c>
@@ -1269,8 +1339,11 @@
       <c r="C23" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
@@ -1280,8 +1353,11 @@
       <c r="C24" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
@@ -1291,8 +1367,11 @@
       <c r="C25" s="15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>34</v>
       </c>
@@ -1302,8 +1381,11 @@
       <c r="C26" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
@@ -1313,8 +1395,11 @@
       <c r="C27" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>36</v>
       </c>
@@ -1324,8 +1409,11 @@
       <c r="C28" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -1335,18 +1423,21 @@
       <c r="C29" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>

--- a/uploads/קובץ לבדיקה.xlsx
+++ b/uploads/קובץ לבדיקה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\DataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216418B-6A93-426A-A115-D2EFA8E674CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360ED3D-79DC-4DA4-91D6-2327EC889DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C09570C1-1D79-4B04-BE2B-D9185E9AD8FE}"/>
   </bookViews>
@@ -1009,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53345894-71C4-4D06-9AEA-C74DD1E2B74D}">
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
